--- a/Assets/Excel/TowerTrap.xlsx
+++ b/Assets/Excel/TowerTrap.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AAB595-2C3B-4810-AA8B-022946C9CFA7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87C8FE1-41C6-4B28-B11D-6F5DF1B03579}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -404,7 +404,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -703,7 +703,7 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>4</v>

--- a/Assets/Excel/TowerTrap.xlsx
+++ b/Assets/Excel/TowerTrap.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87C8FE1-41C6-4B28-B11D-6F5DF1B03579}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38744BF-429A-4D26-9DD8-0218EDC4E295}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,8 +119,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -404,7 +407,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -471,11 +474,11 @@
       <c r="C3">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>35</v>
-      </c>
-      <c r="E3">
-        <v>1.2</v>
+      <c r="D3" s="1">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -497,10 +500,10 @@
       <c r="C4">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>60</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>1.5</v>
       </c>
       <c r="F4">
@@ -523,10 +526,10 @@
       <c r="C5">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0.2</v>
       </c>
       <c r="F5">
@@ -549,10 +552,10 @@
       <c r="C6">
         <v>9</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0.6</v>
       </c>
       <c r="F6">
@@ -575,10 +578,10 @@
       <c r="C7">
         <v>9</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7">
@@ -601,11 +604,11 @@
       <c r="C8">
         <v>9</v>
       </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>0.1</v>
+      <c r="D8" s="1">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
       </c>
       <c r="F8">
         <v>4</v>

--- a/Assets/Excel/TowerTrap.xlsx
+++ b/Assets/Excel/TowerTrap.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38744BF-429A-4D26-9DD8-0218EDC4E295}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E92378-F377-4CAF-8F71-C1710E9C4B47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -46,44 +46,59 @@
     <t>Sell</t>
   </si>
   <si>
-    <t>基础塔</t>
-  </si>
-  <si>
     <t>炮塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>狙击塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>机枪塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>麻醉塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>沥青塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>火焰塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>天罗地网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>铁蒺藜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电网</t>
-  </si>
-  <si>
-    <t>浮游炮塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮游炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,19 +113,65 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -119,10 +180,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -439,288 +512,262 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3">
+        <v>600</v>
+      </c>
+      <c r="H2" s="3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>60</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3">
         <v>500</v>
       </c>
-      <c r="H2">
+      <c r="H3" s="3">
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>600</v>
-      </c>
-      <c r="H3">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D4" s="1">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1">
-        <v>60</v>
-      </c>
       <c r="E4" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>500</v>
-      </c>
-      <c r="H4">
-        <v>350</v>
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3">
+        <v>300</v>
+      </c>
+      <c r="H4" s="3">
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
       </c>
       <c r="E5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>300</v>
-      </c>
-      <c r="H5">
-        <v>210</v>
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>400</v>
+      </c>
+      <c r="H5" s="3">
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>400</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>400</v>
+      </c>
+      <c r="H7" s="3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>500</v>
+      </c>
+      <c r="H8" s="3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1">
         <v>5</v>
       </c>
-      <c r="G7">
-        <v>400</v>
-      </c>
-      <c r="H7">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>600</v>
+      </c>
+      <c r="H10" s="3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="D8" s="1">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>400</v>
-      </c>
-      <c r="H8">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>500</v>
-      </c>
-      <c r="H9">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>300</v>
-      </c>
-      <c r="H10">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>600</v>
-      </c>
-      <c r="H11">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/TowerTrap.xlsx
+++ b/Assets/Excel/TowerTrap.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E92378-F377-4CAF-8F71-C1710E9C4B47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74958AE2-7951-409C-AB12-B1C8DC32521A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7785" yWindow="2205" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,18 +46,10 @@
     <t>Sell</t>
   </si>
   <si>
-    <t>炮塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3*3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>狙击塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>机枪塔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,6 +83,14 @@
   </si>
   <si>
     <t>3*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪婪之门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +480,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -516,10 +516,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>28</v>
@@ -542,16 +542,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="E3" s="1">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2">
         <v>10</v>
@@ -568,10 +568,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -594,10 +594,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
@@ -620,10 +620,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -646,10 +646,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1">
         <v>30</v>
@@ -672,10 +672,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -698,10 +698,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
@@ -724,10 +724,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -750,7 +750,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
